--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801762.758683938</v>
+        <v>1799217.690392509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12444970.70772257</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428022.1753582568</v>
+        <v>417425.6313448973</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10186281.78397532</v>
+        <v>10190263.82872897</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>208.2085323732919</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>66.47848769536506</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>71.8057252314384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015061</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961706</v>
       </c>
       <c r="G5" t="n">
-        <v>231.5087670762074</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>270.6457911193449</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>270.6457911193449</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.6457911193449</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.53264881198423</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.35562383539663</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4160091615136</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>270.6457911193449</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>154.7673886031635</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.05955538367313</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>237.9193059650779</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.71410042222081</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.1644453249593</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.5517498754676</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1749784766143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>83.74901076264509</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0311623452478</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>83.82823269715949</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0489563585645</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.4163999908186</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0422364341347</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>235.7082316332965</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.0835135769596</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>23.6255456814109</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>46.29306638367346</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057776</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>80.90831282609498</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,19 +3478,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892453</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763878</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759409</v>
       </c>
       <c r="W43" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.1938928750989</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5660780344868</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5660780344868</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4413,13 +4413,13 @@
         <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>987.7055324349487</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>987.7055324349487</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>759.5696864717622</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>524.4175782400196</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>524.4175782400196</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>316.5660780344868</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>316.5660780344868</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.4777916095494</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>490.4777916095494</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4489,19 +4489,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640389</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>756.8554481767274</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4777916095494</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>490.4777916095494</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.4777916095494</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.4444035096677</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="C5" t="n">
-        <v>262.4444035096677</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="D5" t="n">
-        <v>262.4444035096677</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="E5" t="n">
-        <v>262.4444035096677</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="F5" t="n">
-        <v>255.4989027604642</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>51.85289433431137</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>147.8552290548801</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>303.8563762408158</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>509.1071481323449</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>722.2929004749874</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>910.2628999284827</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
-        <v>1036.18994476345</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1082.58316447738</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1082.58316447738</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1082.58316447738</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1082.58316447738</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>1082.58316447738</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V5" t="n">
-        <v>809.2035774881424</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="W5" t="n">
-        <v>535.823990498905</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="X5" t="n">
-        <v>535.823990498905</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.4444035096677</v>
+        <v>53.98113264792562</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.8111152104964</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>476.3580859293694</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>327.4236762681181</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>168.1862212626626</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.6516632895476</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>98.38754287825536</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8909439361441</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>441.7112295231012</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>655.0700062550329</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>828.0318087456286</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.630451863625</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1082.58316447738</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1065.052231310312</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1065.052231310312</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1065.052231310312</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U6" t="n">
-        <v>1065.052231310312</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V6" t="n">
-        <v>1065.052231310312</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W6" t="n">
-        <v>1065.052231310312</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X6" t="n">
-        <v>858.5714139754502</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.8111152104964</v>
+        <v>398.4938728567103</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.5075267100937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>466.5713437821868</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>316.4547043698511</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>168.541610787458</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.6516632895476</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>128.2056025464437</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>320.0843941609299</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>532.7827996211349</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>745.8583288256611</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>926.6517718053146</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1057.831113077933</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1065.217809258082</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1065.217809258082</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1065.217809258082</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>1065.217809258082</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.217809258082</v>
+        <v>356.2217926073724</v>
       </c>
       <c r="V7" t="n">
-        <v>1065.217809258082</v>
+        <v>356.2217926073724</v>
       </c>
       <c r="W7" t="n">
-        <v>791.8382222688447</v>
+        <v>89.84413604019437</v>
       </c>
       <c r="X7" t="n">
-        <v>635.5075267100937</v>
+        <v>89.84413604019437</v>
       </c>
       <c r="Y7" t="n">
-        <v>635.5075267100937</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.276441056585</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1862.313924116173</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1504.048225509423</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>1118.259972911178</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>707.2740681215707</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>291.5693178458596</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056585</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,19 +4884,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1619.563190355082</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.816105018781</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>879.1316168128944</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007884</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>742.422574620032</v>
+        <v>793.74547451185</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8006473127037</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>95.21173263692003</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>377.8919112275246</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>852.2947399039301</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1477.735160302611</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2205.327574907683</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2949.307003834349</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3638.490420549533</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4192.191521035114</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4559.825241454986</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4688.265775907188</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4603.67081554088</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4402.629237414367</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>4149.188970524672</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>3818.126083181101</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3465.357427910987</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.16411959498</v>
+        <v>3091.891669649907</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619168</v>
+        <v>2701.752337674096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3595186577121</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9064893765851</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>619.9720797153338</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7346247098784</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>314.2000667367633</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4402980405271</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>243.309846376622</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>577.0600934411126</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1072.151029113137</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1072.151029113137</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.814998036501</v>
+        <v>1699.467895231669</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2251.120476233788</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2319.92299625338</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.754398433617</v>
+        <v>580.0151616454765</v>
       </c>
       <c r="C13" t="n">
-        <v>846.8182155057106</v>
+        <v>411.0789787175696</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876502</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>173.9372723687385</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>435.5212620398424</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>825.7851432062814</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1247.652809956955</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1664.924022934749</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>2034.325229908151</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2326.891096275497</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.013457116465</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2378.926184398467</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>2196.055238505402</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.375774410168</v>
+        <v>1976.449823383561</v>
       </c>
       <c r="U13" t="n">
-        <v>2190.286651548252</v>
+        <v>1687.374546300379</v>
       </c>
       <c r="V13" t="n">
-        <v>1935.602163342365</v>
+        <v>1432.690058094492</v>
       </c>
       <c r="W13" t="n">
-        <v>1646.184993305405</v>
+        <v>1143.272888057531</v>
       </c>
       <c r="X13" t="n">
-        <v>1418.195442407387</v>
+        <v>915.2833371595138</v>
       </c>
       <c r="Y13" t="n">
-        <v>1197.402863263857</v>
+        <v>761.6636264757162</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4852666057155</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>449.4852666057155</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>282.2891673205955</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>140.5773361627936</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,13 +6783,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.306025422647</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>929.3698424947402</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>779.2532030824044</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>631.3401095000113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.4501620021009</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.2540627169809</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.5422315591789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y37" t="n">
-        <v>1279.954490252887</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532803</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.091168225067</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.10161732705</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.30903818352</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>5.262887399594092</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.01279547936764</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8385865109866586</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>106.1763780613207</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>186.5911984019043</v>
+        <v>255.8421700460953</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.569396338521301</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.29152613729002</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.29336059121928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.47721991512387</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.50113977513516</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8770068749577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.9899273368015</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>34.97276993489207</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.531099771517</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.40545032729</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3575234924705484</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.754401294456</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272896</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788713</v>
       </c>
       <c r="W43" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>895217.1243382705</v>
+        <v>895145.6976223126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871419.9700210559</v>
+        <v>875976.4839468009</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.810176929</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.810176929</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
-        <v>541808.845855671</v>
+        <v>544669.9127392782</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>7673.230953343045</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>383864.7205861332</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361762</v>
+        <v>506886.0326267341</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>585.096639048943</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>1784.052100575938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93628.24182084481</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317442</v>
+        <v>132447.3436061356</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>157.2049554775576</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>246463.3861779997</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9330.667735531239</v>
+        <v>9336.866604843564</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26448,10 +26448,10 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63599.34810691497</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>101072.4410767592</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-437475.8558236149</v>
       </c>
       <c r="C6" t="n">
-        <v>236467.2294201337</v>
+        <v>242612.1247675782</v>
       </c>
       <c r="D6" t="n">
-        <v>-59325.57205968905</v>
+        <v>-66589.2152794991</v>
       </c>
       <c r="E6" t="n">
-        <v>-63416.98902987489</v>
+        <v>-72660.73602061099</v>
       </c>
       <c r="F6" t="n">
-        <v>422911.9614950491</v>
+        <v>433744.3900456055</v>
       </c>
       <c r="G6" t="n">
-        <v>434364.2246100902</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="H6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846547</v>
       </c>
       <c r="I6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="J6" t="n">
-        <v>365365.070190976</v>
+        <v>365330.3322655404</v>
       </c>
       <c r="K6" t="n">
-        <v>432580.1725095141</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="L6" t="n">
-        <v>340735.9827892453</v>
+        <v>338946.8405470846</v>
       </c>
       <c r="M6" t="n">
-        <v>304887.6801783459</v>
+        <v>301882.1430785187</v>
       </c>
       <c r="N6" t="n">
-        <v>431287.2072543855</v>
+        <v>434172.2817291773</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100905</v>
+        <v>434329.4866846546</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100902</v>
+        <v>434329.4866846544</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>620.0222021494861</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.46794876009</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>270.6457911193449</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.066443976797</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>5.967188380007769</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>314.0426899680532</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988465</v>
+        <v>433.403056642551</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>0.5075515815835843</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>6.931911117838808</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>369.9390409806939</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259681</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>0.6418441228513529</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>6.931911117838808</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806939</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259681</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>0.6418441228511256</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>6.931911117838808</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806939</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259681</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>0.6418441228513529</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.2888308038642</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,10 +27436,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>141.0324363441211</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.67144771683371</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>180.3319180923896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>22.80911833508486</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>387.1550383620944</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>181.3014188724975</v>
-      </c>
       <c r="H5" t="n">
-        <v>313.947958386065</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>114.3817953056097</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.2210507662195</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.1847050820836</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1462487825221</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>57.10646735078996</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>78.59517759806806</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.5921475367086</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.00053483788311</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0098845019834</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.35536037674959</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.47989429600501</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.9115293481485</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.7892531875067</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8536430901046</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.356976041963918</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8729065349105</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.286488676256</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>121.8269758336435</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>14.31143149181125</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.0207715110817</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.531638012045</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1683691822117</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2580435661155</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>15.87720721724605</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>70.94226678587364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.5250979684217</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.09924659732746</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>84.84347199735282</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.492551566430093</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.5268437297022</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>96.09409426479625</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>211.5521985112963</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>317.0619063182822</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>393.3433313194172</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>437.6702452389184</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>444.752207377038</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>419.9668977383487</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>358.4320309421057</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>269.1675279693279</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>156.5727423347645</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.79901882002581</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>10.91114448204774</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1994041253144074</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.333632661227197</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>12.88008385974688</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.91673855541006</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>125.99904015568</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>215.3524284579022</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>289.5679162019841</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>337.9121001714699</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>346.8556279741734</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>317.3051358490865</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>254.6653456338144</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.2370393524401</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.80221031724651</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.77164175568936</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.375475507314882</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08773899087021034</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.118072823548254</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.94068383118357</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.62349909361476</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>79.04774862486153</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>129.8997334995152</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>166.2269359664377</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>175.2629972403867</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>171.0956348980706</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0345114593478</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>135.2258258589633</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.6233525245724</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>50.27261986608782</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.48496002492729</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.77722024606981</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06098579037535935</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.497358587980258</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>56.29982363915283</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>211.9369169631091</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>466.5814384565898</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>699.2846274857943</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>867.5244153726953</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>965.2880661616891</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>980.9074362497881</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>926.2430767905594</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>790.5270366497966</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>593.6528822177535</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>345.3234514022152</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.2710588236003</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>24.06468721888359</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4397886870384206</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.941346153936798</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.40721153933697</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>277.8927083418972</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>474.9629006556627</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>638.6462339940402</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>764.9951122030621</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>699.8210737395152</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>203.4719023836151</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.4602564218271</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.63421474527338</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.85568910292946</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935096153905789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.465925809239506</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9243221948749</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>74.157114336039</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.3409547132331</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.4957440189172</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>366.6159153118445</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>386.545079351971</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>377.353901335715</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>348.547404382326</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.2425178738399</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.4876602627736</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.8769913863509</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.97436160283757</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.53622845765971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345050441403369</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>209.2370040367373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34781,7 +34781,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>153.4895779655504</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,7 +34790,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>30.50629398461001</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>96.97205527330163</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>157.57691634943</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>207.3240120116457</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>215.339143780447</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>189.868686316662</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>127.1990351868362</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.86183809487844</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>77.5109894835432</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>151.0135364221099</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>195.7780662494516</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>215.5139158908401</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>174.7088914046421</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>226.8673162808049</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.25526526641855</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>107.6302416736324</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>193.8169612267538</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>214.8468742022273</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>215.2278072772992</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6196393733874</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>132.5043851238568</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.461309272878012</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M9" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M9" t="n">
-        <v>366.9313322820406</v>
-      </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>436.2707275254367</v>
+        <v>505.5216991696276</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.461027392703187</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>285.5355339299035</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>479.1947764408138</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>631.7580004027081</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>734.9418329344164</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>751.4943726531972</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>696.1448653688726</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>559.2940408945271</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>371.347192343304</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>129.7379135880831</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>151.0550816752305</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>337.1214616813037</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>500.0918542141661</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>633.6534001197289</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>557.2248292950708</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>69.49749496928492</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.4784823358056</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>80.98177459656034</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.2262521930343</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.2059405721607</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>426.1289563138116</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.4860737149436</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>373.1325322963657</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>295.5210771387333</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>120.3256170110792</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
